--- a/doc/templates/flora_kalbar_template_demo.xlsx
+++ b/doc/templates/flora_kalbar_template_demo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwebb\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" tabRatio="642" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Lokasi" sheetId="1" r:id="rId1"/>
@@ -21,26 +16,28 @@
     <definedName name="adi">Tumbuhan!$P$4</definedName>
     <definedName name="joe" localSheetId="2">Tumbuhan!$P$4</definedName>
     <definedName name="kode_tumbuhan">Tumbuhan!$A$2:$A$500</definedName>
-    <definedName name="Locn">Lokasi!$A$1:$F$10</definedName>
-    <definedName name="nama_location">Lokasi!$A$2:$A$3</definedName>
+    <definedName name="Locn">Lokasi!$A$1:$F$1</definedName>
+    <definedName name="nama_location">Lokasi!$A$2:$A$180</definedName>
     <definedName name="nama_orang">Orang!$A$2:$A$100</definedName>
-    <definedName name="nama_person">Orang!$A$2:$A$3</definedName>
+    <definedName name="nama_person">Orang!#REF!</definedName>
     <definedName name="nama_taxon">"$#REF!.$A$2:$A$5"</definedName>
-    <definedName name="nama_tempat">Lokasi!$A$2:$A$100</definedName>
-    <definedName name="Person">Orang!$A$1:$B$5</definedName>
-    <definedName name="person_shortname">Orang!$A$2:$A$3</definedName>
+    <definedName name="nama_tempat">Lokasi!$A$2:$A$80</definedName>
+    <definedName name="Person">Orang!$A$1:$B$1</definedName>
+    <definedName name="person_shortname">Orang!#REF!</definedName>
+    <definedName name="Petak_A__1_km_selatan_dari_Dusun_Ambawang">Lokasi!#REF!</definedName>
     <definedName name="Photo">Foto!$A$1:$B$10</definedName>
     <definedName name="plant_id">Tumbuhan!$A$2:$A$4</definedName>
     <definedName name="plant_parts">Foto!$G$2:$G$21</definedName>
     <definedName name="Taxon">"$#REF!.$A$1:$I$6"</definedName>
     <definedName name="Tree">Tumbuhan!$A$1:$Q$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>nama_tempat_lengkap</t>
   </si>
@@ -72,21 +69,12 @@
     <t>Kalimantan Barat</t>
   </si>
   <si>
-    <t>Ahmad's house, Sukadana, Kalbar</t>
-  </si>
-  <si>
-    <t>Low rolling hills</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>Ovan Cop</t>
   </si>
   <si>
-    <t>joe.bloggs@gmail.com</t>
-  </si>
-  <si>
     <t>adibejo123@yahoo.co.id</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
   </si>
   <si>
     <t>Petak A, 1 km selatan dari Dusun Ambawang</t>
-  </si>
-  <si>
-    <t>Rumah Ahmad, Sukadana, Kalbar</t>
   </si>
   <si>
     <t>Adi Bejo</t>
@@ -315,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -339,7 +324,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,18 +335,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="40"/>
         <bgColor indexed="15"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
@@ -420,46 +393,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="8">
@@ -542,14 +514,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -596,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,11 +784,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -834,7 +798,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -862,11 +826,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -876,7 +840,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -893,19 +857,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IT4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" customHeight="1"/>
@@ -918,7 +882,7 @@
     <col min="8" max="254" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" customHeight="1">
+    <row r="1" spans="1:254" ht="14.65" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,153 +908,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:254" ht="14.65" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="15">
         <v>110.12345000000001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="15">
         <v>-2.0001099999999998</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="16">
         <v>30</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4">
-        <v>111.12542999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-3.0001199999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.65" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
+      <c r="H2" s="14"/>
+      <c r="IT2"/>
+    </row>
+    <row r="3" spans="1:254" ht="14.65" customHeight="1">
+      <c r="IT3"/>
+    </row>
+    <row r="4" spans="1:254" ht="14.65" customHeight="1">
+      <c r="IT4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations count="8">
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Ketinggian (atas permukaan laut)" prompt="Dalam m (metre)" sqref="D2:D10">
+  <dataValidations xWindow="68" yWindow="231" count="7">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama tempat (Locality)" prompt="Nama dan deskripsi tempat (5-10 kata)" sqref="A2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Ketinggian (atas permukaan laut)" prompt="Dalam m (metre)" sqref="D2">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Medan/Geomorphology" prompt="Deskripsi medan (rawa, bukit rendah, berbatu granite, dll)" sqref="E2:E10"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Catatan/Notes" prompt="Catatan lain tentang lokasi ini" sqref="H2:H10"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama tempat (Locality)" prompt="Nama dan deskripsi tempat (5-10 kata)" sqref="A2:A10"/>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" promptTitle="Latitude" prompt="desimal degree saja: +/-XX.XXXXX" sqref="C2:C10">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Medan/Geomorphology" prompt="Deskripsi medan (rawa, bukit rendah, berbatu granite, dll)" sqref="E2"/>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" promptTitle="Latitude" prompt="desimal degree saja: +/-XX.XXXXX" sqref="C2">
       <formula1>-91</formula1>
       <formula2>91</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" promptTitle="Longitude" prompt="desimal degree saja XXX.XXXXX" sqref="B2:B10">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" promptTitle="Longitude" prompt="desimal degree saja XXX.XXXXX" sqref="B2">
       <formula1>-181</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Kabupaten" prompt="Lengkap, mulai dengan Huruf besar" sqref="F2:F10"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Provinsi" prompt="Lengkap, mulai dengan Huruf besar" sqref="G2:G10"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Kabupaten" prompt="Lengkap, mulai dengan Huruf besar" sqref="F2"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Provinsi" prompt="Lengkap, mulai dengan Huruf besar" sqref="G2"/>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1102,12 +966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1117,63 +981,28 @@
     <col min="3" max="252" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" customHeight="1">
+    <row r="1" spans="1:3" ht="14.65" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.65" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.65" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.65" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="14.65" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
+      <c r="C2" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="2">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Lengkap" prompt="Mulai kata2 dengan huruf besar" sqref="A2:A10"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Email address" prompt="Enter email address" sqref="B2:B10"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Lengkap" prompt="Mulai kata2 dengan huruf besar" sqref="A2"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Email address" prompt="Enter email address" sqref="B2"/>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1185,381 +1014,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="22"/>
+    <col min="1" max="1" width="11.5703125" style="10"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="7" style="8" customWidth="1"/>
-    <col min="7" max="10" width="9" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" customWidth="1"/>
+    <col min="7" max="10" width="9" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="32.85546875" style="1" customWidth="1"/>
     <col min="15" max="16" width="9.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="12" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" style="1" customWidth="1"/>
     <col min="21" max="256" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="M1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="N1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="P1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="R1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>87</v>
+      <c r="T1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>45</v>
+      <c r="A2" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="18">
         <v>41771</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="21">
         <v>11</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="22">
         <v>12</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>13</v>
+      <c r="O2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="Q2" s="18">
         <v>41771</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>89</v>
+      <c r="R2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>76</v>
+      <c r="A3" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="18">
         <v>41802</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3</v>
+      </c>
+      <c r="H3" s="22">
+        <v>20</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="N3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="13">
-        <v>3</v>
-      </c>
-      <c r="H3" s="19">
-        <v>20</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>42</v>
+      <c r="O3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="Q3" s="18">
         <v>41892</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="R3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
     </row>
     <row r="4" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A4" s="21"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="6"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A6" s="21"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A7" s="21"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="6"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A8" s="21"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="18"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A9" s="21"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
     </row>
     <row r="10" spans="1:21" ht="14.65" customHeight="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="6"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="18"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1567,9 +1396,6 @@
     <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Observasi oleh" prompt="From list, select the person who observed/photographed/collected this plant" sqref="C2:C10">
       <formula1>nama_orang</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Lokasi" prompt="Select the location name from the dropdown list" sqref="D2:D10">
-      <formula1>nama_location</formula1>
-    </dataValidation>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Microhabitat notes (optional)" prompt="Enter details of the plant's microhabitat. E.g., among rocks, on steep bank, on hummock in swamp" sqref="E2:E10">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -1597,13 +1423,13 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Determination, dari plantlist" prompt="Enter the kode untuk jenis determinasi, dari The Plant List (versi 1.1). Bisa cari di: http://xmalesia.info/doc/plantlist_lookup.html atau http://www.theplantlist.org . Format (contoh): kew-12345 atau gcc-23. Kalau tahu genus saja, pakai kode (eg) tplg-12" sqref="M2:M10"/>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Confidence in taxon name" prompt="For Scientific names ONLY: Enter the level of confidence _x000a_for the Scientific name chosen from the list" sqref="O2:O10">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Confidence in taxon name" prompt="For Scientific names ONLY: Enter the level of confidence &#10;for the Scientific name chosen from the list" sqref="O2:O10">
       <formula1>"high,medium,low"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Identified by" prompt="For scientific names ONLY: From list, select the person _x000a_who identified this plant" sqref="P2:P10">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Identified by" prompt="For scientific names ONLY: From list, select the person &#10;who identified this plant" sqref="P2:P10">
       <formula1>nama_orang</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Determination resources" prompt="For scientifc names only: Enter the resources consulted _x000a_for the determination. E.g., book title and author, website_x000a_URL, specimens compared to. If from memory, write _x000a_'memory'" sqref="R2:R10">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Determination resources" prompt="For scientifc names only: Enter the resources consulted &#10;for the determination. E.g., book title and author, website&#10;URL, specimens compared to. If from memory, write &#10;'memory'" sqref="R2:R10">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1621,11 +1447,14 @@
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" promptTitle="Tanggal determinasi" prompt="Pakai format YYYY-MM-DD (TTTT-BB-HH)" sqref="Q2:Q10">
       <formula1>41760</formula1>
     </dataValidation>
-    <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Catatan ttg Permanfaatan" prompt="Siapa yang bilang, dan apa_x000a_" sqref="U2:U10"/>
+    <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Catatan ttg Permanfaatan" prompt="Siapa yang bilang, dan apa&#10;" sqref="U2:U10"/>
     <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" promptTitle="Nama lokal" prompt="(termasuk keterangan bahasa)" sqref="T2:T10"/>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lokasi" prompt="Select the location name from the dropdown list" sqref="D1:D1048576">
+      <formula1>nama_location</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
@@ -1634,18 +1463,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
@@ -1654,201 +1483,740 @@
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="14.65" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.65" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" ht="14.65" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
-      <c r="G11" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
-      <c r="G12" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
-      <c r="G13" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="G14" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="G15" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.65" customHeight="1">
-      <c r="G16" s="27" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="7:7" ht="12.75" customHeight="1">
-      <c r="G17" s="27" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="7:7" ht="12.75" customHeight="1">
-      <c r="G18" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" ht="12.75" customHeight="1">
-      <c r="G19" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" ht="12.75" customHeight="1">
-      <c r="G20" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" ht="12.75" customHeight="1">
-      <c r="G21" s="27" t="s">
-        <v>74</v>
-      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
